--- a/静态调查资料.xlsx
+++ b/静态调查资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13160" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="25200" windowHeight="11970" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="acop" sheetId="1" r:id="rId1"/>
@@ -358,11 +358,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -427,24 +428,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -452,6 +452,22 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -487,36 +503,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -525,14 +512,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,9 +534,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,13 +584,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,43 +656,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,31 +668,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,31 +692,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,43 +752,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,20 +793,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,6 +823,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -836,41 +852,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -889,157 +870,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1052,7 +1053,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1064,45 +1065,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1112,60 +1116,60 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1442,23 +1446,23 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="38.6153846153846" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7019230769231" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.9038461538462" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38.6166666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.9" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.8942307692308" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.23076923076923" style="1"/>
-    <col min="7" max="7" width="12.9807692307692" style="1" customWidth="1"/>
-    <col min="8" max="8" width="0.153846153846154" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5673076923077" style="1" customWidth="1"/>
-    <col min="10" max="10" width="35.7307692307692" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.0865384615385" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.2211538461538" style="1" customWidth="1"/>
-    <col min="13" max="14" width="9.23076923076923" style="1"/>
-    <col min="15" max="15" width="12.8076923076923" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.23076923076923" style="1"/>
+    <col min="5" max="5" width="10.8916666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.23333333333333" style="1"/>
+    <col min="7" max="7" width="12.9833333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="0.15" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5666666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35.7333333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.0833333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.225" style="1" customWidth="1"/>
+    <col min="13" max="14" width="9.23333333333333" style="1"/>
+    <col min="15" max="15" width="12.8083333333333" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.23333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:1">
@@ -1529,7 +1533,7 @@
       <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="23">
         <v>60632</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -1544,95 +1548,95 @@
       <c r="J3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="12" t="s">
         <v>24</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" s="11" customFormat="1" spans="1:15">
-      <c r="A4" s="11" t="s">
+    <row r="4" s="12" customFormat="1" spans="1:15">
+      <c r="A4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="25">
         <v>31331</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="12">
         <v>60176</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" s="11" customFormat="1" spans="1:15">
-      <c r="A5" s="11" t="s">
+    <row r="5" s="12" customFormat="1" spans="1:15">
+      <c r="A5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="25">
         <v>31713</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="12">
         <v>75703</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="12" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1657,14 +1661,14 @@
       <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="33.3269230769231" customWidth="1"/>
-    <col min="2" max="2" width="12.3365384615385" customWidth="1"/>
-    <col min="3" max="3" width="14.2596153846154" customWidth="1"/>
-    <col min="10" max="10" width="38.7884615384615" customWidth="1"/>
-    <col min="15" max="15" width="14.5769230769231" customWidth="1"/>
-    <col min="16" max="16" width="14.0961538461538" customWidth="1"/>
+    <col min="1" max="1" width="33.325" customWidth="1"/>
+    <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="14.2583333333333" customWidth="1"/>
+    <col min="10" max="10" width="38.7916666666667" customWidth="1"/>
+    <col min="15" max="15" width="14.575" customWidth="1"/>
+    <col min="16" max="16" width="14.1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
@@ -1744,7 +1748,7 @@
       <c r="J3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="14" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1755,7 +1759,7 @@
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="13">
         <v>37540</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1782,7 +1786,7 @@
       <c r="M4">
         <v>1125</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="14" t="s">
         <v>94</v>
       </c>
       <c r="Q4" s="1"/>
@@ -1794,7 +1798,7 @@
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="13">
         <v>37922</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1815,7 +1819,7 @@
       <c r="J5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="14" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1831,7 +1835,7 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1839,18 +1843,18 @@
       <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="32.2019230769231" customWidth="1"/>
-    <col min="2" max="2" width="14.4230769230769" customWidth="1"/>
-    <col min="3" max="3" width="13.9326923076923" customWidth="1"/>
-    <col min="6" max="6" width="9.13461538461539" customWidth="1"/>
-    <col min="7" max="7" width="11.0576923076923" customWidth="1"/>
-    <col min="9" max="9" width="10.4134615384615" customWidth="1"/>
-    <col min="10" max="10" width="32.0480769230769" customWidth="1"/>
-    <col min="11" max="11" width="10.4134615384615" customWidth="1"/>
+    <col min="1" max="1" width="32.2" customWidth="1"/>
+    <col min="2" max="2" width="14.425" customWidth="1"/>
+    <col min="3" max="3" width="13.9333333333333" customWidth="1"/>
+    <col min="6" max="6" width="9.13333333333333" customWidth="1"/>
+    <col min="7" max="7" width="11.0583333333333" customWidth="1"/>
+    <col min="9" max="9" width="10.4166666666667" customWidth="1"/>
+    <col min="10" max="10" width="32.05" customWidth="1"/>
+    <col min="11" max="11" width="10.4166666666667" customWidth="1"/>
     <col min="12" max="12" width="14.25" customWidth="1"/>
-    <col min="15" max="15" width="13.1346153846154" customWidth="1"/>
+    <col min="15" max="15" width="13.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:1">
@@ -1915,7 +1919,7 @@
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="8">
         <v>31140</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1943,21 +1947,21 @@
         <v>103</v>
       </c>
       <c r="M3" s="3">
-        <v>420</v>
-      </c>
-      <c r="N3" s="10"/>
+        <v>660</v>
+      </c>
+      <c r="N3" s="8"/>
       <c r="O3" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" ht="17.6" spans="1:15">
+    <row r="4" ht="14.25" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>31331</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1975,7 +1979,7 @@
       <c r="I4" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="11" t="s">
         <v>107</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -1987,9 +1991,232 @@
       <c r="M4">
         <v>3380</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="N4" s="10"/>
+      <c r="O4" s="12" t="s">
         <v>32</v>
       </c>
+    </row>
+    <row r="5" spans="3:14">
+      <c r="C5" s="10"/>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="3:14">
+      <c r="C6" s="10"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="3:14">
+      <c r="C7" s="10"/>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="3:14">
+      <c r="C8" s="10"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="3:14">
+      <c r="C9" s="10"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="3:14">
+      <c r="C10" s="10"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="3:14">
+      <c r="C11" s="10"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="3:14">
+      <c r="C12" s="10"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="3:14">
+      <c r="C13" s="10"/>
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" spans="3:14">
+      <c r="C14" s="10"/>
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="3:14">
+      <c r="C15" s="10"/>
+      <c r="N15" s="10"/>
+    </row>
+    <row r="16" spans="3:14">
+      <c r="C16" s="10"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="3:14">
+      <c r="C17" s="10"/>
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" spans="3:14">
+      <c r="C18" s="10"/>
+      <c r="N18" s="10"/>
+    </row>
+    <row r="19" spans="3:14">
+      <c r="C19" s="10"/>
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" spans="3:14">
+      <c r="C20" s="10"/>
+      <c r="N20" s="10"/>
+    </row>
+    <row r="21" spans="3:14">
+      <c r="C21" s="10"/>
+      <c r="N21" s="10"/>
+    </row>
+    <row r="22" spans="3:14">
+      <c r="C22" s="10"/>
+      <c r="N22" s="10"/>
+    </row>
+    <row r="23" spans="3:14">
+      <c r="C23" s="10"/>
+      <c r="N23" s="10"/>
+    </row>
+    <row r="24" spans="3:14">
+      <c r="C24" s="10"/>
+      <c r="N24" s="10"/>
+    </row>
+    <row r="25" spans="3:14">
+      <c r="C25" s="10"/>
+      <c r="N25" s="10"/>
+    </row>
+    <row r="26" spans="3:14">
+      <c r="C26" s="10"/>
+      <c r="N26" s="10"/>
+    </row>
+    <row r="27" spans="3:14">
+      <c r="C27" s="10"/>
+      <c r="N27" s="10"/>
+    </row>
+    <row r="28" spans="3:14">
+      <c r="C28" s="10"/>
+      <c r="N28" s="10"/>
+    </row>
+    <row r="29" spans="3:14">
+      <c r="C29" s="10"/>
+      <c r="N29" s="10"/>
+    </row>
+    <row r="30" spans="3:14">
+      <c r="C30" s="10"/>
+      <c r="N30" s="10"/>
+    </row>
+    <row r="31" spans="3:14">
+      <c r="C31" s="10"/>
+      <c r="N31" s="10"/>
+    </row>
+    <row r="32" spans="3:14">
+      <c r="C32" s="10"/>
+      <c r="N32" s="10"/>
+    </row>
+    <row r="33" spans="3:14">
+      <c r="C33" s="10"/>
+      <c r="N33" s="10"/>
+    </row>
+    <row r="34" spans="3:14">
+      <c r="C34" s="10"/>
+      <c r="N34" s="10"/>
+    </row>
+    <row r="35" spans="3:14">
+      <c r="C35" s="10"/>
+      <c r="N35" s="10"/>
+    </row>
+    <row r="36" spans="3:14">
+      <c r="C36" s="10"/>
+      <c r="N36" s="10"/>
+    </row>
+    <row r="37" spans="3:14">
+      <c r="C37" s="10"/>
+      <c r="N37" s="10"/>
+    </row>
+    <row r="38" spans="3:14">
+      <c r="C38" s="10"/>
+      <c r="N38" s="10"/>
+    </row>
+    <row r="39" spans="3:14">
+      <c r="C39" s="10"/>
+      <c r="N39" s="10"/>
+    </row>
+    <row r="40" spans="3:14">
+      <c r="C40" s="10"/>
+      <c r="N40" s="10"/>
+    </row>
+    <row r="41" spans="3:14">
+      <c r="C41" s="10"/>
+      <c r="N41" s="10"/>
+    </row>
+    <row r="42" spans="3:14">
+      <c r="C42" s="10"/>
+      <c r="N42" s="10"/>
+    </row>
+    <row r="43" spans="3:14">
+      <c r="C43" s="10"/>
+      <c r="N43" s="10"/>
+    </row>
+    <row r="44" spans="3:14">
+      <c r="C44" s="10"/>
+      <c r="N44" s="10"/>
+    </row>
+    <row r="45" spans="3:14">
+      <c r="C45" s="10"/>
+      <c r="N45" s="10"/>
+    </row>
+    <row r="46" spans="3:14">
+      <c r="C46" s="10"/>
+      <c r="N46" s="10"/>
+    </row>
+    <row r="47" spans="3:14">
+      <c r="C47" s="10"/>
+      <c r="N47" s="10"/>
+    </row>
+    <row r="48" spans="3:14">
+      <c r="C48" s="10"/>
+      <c r="N48" s="10"/>
+    </row>
+    <row r="49" spans="3:14">
+      <c r="C49" s="10"/>
+      <c r="N49" s="10"/>
+    </row>
+    <row r="50" spans="3:14">
+      <c r="C50" s="10"/>
+      <c r="N50" s="10"/>
+    </row>
+    <row r="51" spans="3:14">
+      <c r="C51" s="10"/>
+      <c r="N51" s="10"/>
+    </row>
+    <row r="52" spans="3:14">
+      <c r="C52" s="10"/>
+      <c r="N52" s="10"/>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="10"/>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" s="10"/>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" s="10"/>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="10"/>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="10"/>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" s="10"/>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="10"/>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" s="10"/>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" s="10"/>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2009,17 +2236,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="32.2019230769231" customWidth="1"/>
-    <col min="2" max="2" width="14.4230769230769" customWidth="1"/>
-    <col min="3" max="3" width="13.9326923076923" customWidth="1"/>
-    <col min="6" max="6" width="9.13461538461539" customWidth="1"/>
-    <col min="7" max="7" width="9.27884615384615" customWidth="1"/>
-    <col min="8" max="8" width="9.23076923076923" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.4134615384615" customWidth="1"/>
-    <col min="10" max="10" width="32.0480769230769" customWidth="1"/>
-    <col min="11" max="11" width="10.4134615384615" customWidth="1"/>
+    <col min="1" max="1" width="32.2" customWidth="1"/>
+    <col min="2" max="2" width="14.425" customWidth="1"/>
+    <col min="3" max="3" width="13.9333333333333" customWidth="1"/>
+    <col min="6" max="6" width="9.13333333333333" customWidth="1"/>
+    <col min="7" max="7" width="9.275" customWidth="1"/>
+    <col min="8" max="8" width="9.23333333333333" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.4166666666667" customWidth="1"/>
+    <col min="10" max="10" width="32.05" customWidth="1"/>
+    <col min="11" max="11" width="10.4166666666667" customWidth="1"/>
     <col min="12" max="12" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2139,16 +2366,16 @@
       <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="37.6538461538462" customWidth="1"/>
-    <col min="2" max="2" width="13.1346153846154" customWidth="1"/>
-    <col min="3" max="3" width="12.9807692307692" customWidth="1"/>
-    <col min="7" max="7" width="9.93269230769231" customWidth="1"/>
+    <col min="1" max="1" width="37.65" customWidth="1"/>
+    <col min="2" max="2" width="13.1333333333333" customWidth="1"/>
+    <col min="3" max="3" width="12.9833333333333" customWidth="1"/>
+    <col min="7" max="7" width="9.93333333333333" customWidth="1"/>
     <col min="9" max="9" width="10.25" customWidth="1"/>
-    <col min="10" max="10" width="18.9038461538462" customWidth="1"/>
-    <col min="11" max="11" width="10.4134615384615" customWidth="1"/>
-    <col min="12" max="12" width="13.9326923076923" customWidth="1"/>
+    <col min="10" max="10" width="18.9" customWidth="1"/>
+    <col min="11" max="11" width="10.4166666666667" customWidth="1"/>
+    <col min="12" max="12" width="13.9333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:1">
@@ -2204,10 +2431,10 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:15">
-      <c r="A3" s="14"/>
-      <c r="C3" s="8"/>
-      <c r="F3" s="23"/>
-      <c r="O3" s="8"/>
+      <c r="A3" s="16"/>
+      <c r="C3" s="13"/>
+      <c r="F3" s="24"/>
+      <c r="O3" s="13"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
@@ -2216,7 +2443,7 @@
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="13">
         <v>31331</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2251,7 +2478,7 @@
       <c r="O4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="P4" s="22" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2262,7 +2489,7 @@
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="13">
         <v>31713</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2295,7 +2522,7 @@
       <c r="O5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="P5" s="22" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2320,17 +2547,17 @@
       <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="41.0192307692308" customWidth="1"/>
-    <col min="2" max="2" width="15.2115384615385" customWidth="1"/>
-    <col min="3" max="3" width="14.7403846153846" customWidth="1"/>
+    <col min="1" max="1" width="41.0166666666667" customWidth="1"/>
+    <col min="2" max="2" width="15.2083333333333" customWidth="1"/>
+    <col min="3" max="3" width="14.7416666666667" customWidth="1"/>
     <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="8.64423076923077" customWidth="1"/>
-    <col min="9" max="9" width="12.0096153846154" customWidth="1"/>
-    <col min="10" max="10" width="29.9711538461538" customWidth="1"/>
-    <col min="12" max="12" width="14.2596153846154" customWidth="1"/>
-    <col min="16" max="16" width="19.7115384615385" customWidth="1"/>
+    <col min="8" max="8" width="8.64166666666667" customWidth="1"/>
+    <col min="9" max="9" width="12.0083333333333" customWidth="1"/>
+    <col min="10" max="10" width="29.975" customWidth="1"/>
+    <col min="12" max="12" width="14.2583333333333" customWidth="1"/>
+    <col min="16" max="16" width="19.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1"/>
@@ -2382,10 +2609,10 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:15">
-      <c r="A3" s="14"/>
-      <c r="C3" s="8"/>
-      <c r="F3" s="23"/>
-      <c r="O3" s="8"/>
+      <c r="A3" s="16"/>
+      <c r="C3" s="13"/>
+      <c r="F3" s="24"/>
+      <c r="O3" s="13"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
@@ -2394,7 +2621,7 @@
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="13">
         <v>31331</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2440,7 +2667,7 @@
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="13">
         <v>31713</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2473,7 +2700,7 @@
       <c r="O5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="P5" s="22" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2498,15 +2725,15 @@
       <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="43.4230769230769" customWidth="1"/>
-    <col min="2" max="2" width="12.9807692307692" customWidth="1"/>
-    <col min="3" max="3" width="10.8942307692308" customWidth="1"/>
-    <col min="9" max="9" width="10.5673076923077" customWidth="1"/>
-    <col min="10" max="10" width="30.4423076923077" customWidth="1"/>
-    <col min="12" max="12" width="10.8942307692308" customWidth="1"/>
-    <col min="16" max="16" width="14.5769230769231" customWidth="1"/>
+    <col min="1" max="1" width="43.425" customWidth="1"/>
+    <col min="2" max="2" width="12.9833333333333" customWidth="1"/>
+    <col min="3" max="3" width="10.8916666666667" customWidth="1"/>
+    <col min="9" max="9" width="10.5666666666667" customWidth="1"/>
+    <col min="10" max="10" width="30.4416666666667" customWidth="1"/>
+    <col min="12" max="12" width="10.8916666666667" customWidth="1"/>
+    <col min="16" max="16" width="14.575" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2594,7 +2821,7 @@
       <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="23">
         <v>60632</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -2609,10 +2836,10 @@
       <c r="J3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="12" t="s">
         <v>24</v>
       </c>
       <c r="O3" s="4" t="s">
@@ -2626,7 +2853,7 @@
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="13">
         <v>31331</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2677,7 +2904,7 @@
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="13">
         <v>31713</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2713,7 +2940,7 @@
       <c r="O5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="21"/>
+      <c r="P5" s="22"/>
     </row>
     <row r="6" ht="15" customHeight="1"/>
   </sheetData>
@@ -2736,11 +2963,11 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="$A5:$XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="32.0480769230769" customWidth="1"/>
-    <col min="2" max="2" width="16.3461538461538" customWidth="1"/>
-    <col min="3" max="3" width="13.6153846153846" customWidth="1"/>
+    <col min="1" max="1" width="32.05" customWidth="1"/>
+    <col min="2" max="2" width="16.35" customWidth="1"/>
+    <col min="3" max="3" width="13.6166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19" customHeight="1"/>
@@ -2751,7 +2978,7 @@
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="13">
         <v>31713</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2784,7 +3011,7 @@
       <c r="O5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="21"/>
+      <c r="P5" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2800,20 +3027,20 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="37.8076923076923" customWidth="1"/>
-    <col min="2" max="2" width="16.3461538461538" customWidth="1"/>
-    <col min="3" max="3" width="13.9423076923077" customWidth="1"/>
-    <col min="7" max="7" width="10.8942307692308" customWidth="1"/>
-    <col min="8" max="8" width="0.471153846153846" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.2115384615385" customWidth="1"/>
-    <col min="10" max="10" width="32.6730769230769" customWidth="1"/>
-    <col min="11" max="12" width="9.23076923076923" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7403846153846" customWidth="1"/>
+    <col min="1" max="1" width="37.8083333333333" customWidth="1"/>
+    <col min="2" max="2" width="16.35" customWidth="1"/>
+    <col min="3" max="3" width="13.9416666666667" customWidth="1"/>
+    <col min="7" max="7" width="10.8916666666667" customWidth="1"/>
+    <col min="8" max="8" width="0.475" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.2083333333333" customWidth="1"/>
+    <col min="10" max="10" width="32.675" customWidth="1"/>
+    <col min="11" max="12" width="9.23333333333333" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2883,7 +3110,7 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="18.8" customHeight="1" spans="1:15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2911,7 +3138,7 @@
         <v>55</v>
       </c>
       <c r="M3" s="1">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>25</v>
@@ -2924,7 +3151,7 @@
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="13">
         <v>31331</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2951,42 +3178,42 @@
       <c r="M4" s="1">
         <v>9</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" s="13" customFormat="1" ht="18.8" customHeight="1" spans="1:15">
-      <c r="A5" s="15" t="s">
+    <row r="5" s="15" customFormat="1" ht="18.8" customHeight="1" spans="1:15">
+      <c r="A5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="18">
         <v>31713</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="15">
         <v>1.75</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2994,10 +3221,10 @@
       <c r="A6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="20">
         <v>32357</v>
       </c>
       <c r="D6" t="s">
@@ -3018,7 +3245,7 @@
       <c r="I6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="21" t="s">
         <v>71</v>
       </c>
       <c r="K6" s="20"/>
@@ -3026,7 +3253,7 @@
       <c r="M6" s="2">
         <v>19.75</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="14" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3159,16 +3386,16 @@
       <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="35.0865384615385" customWidth="1"/>
-    <col min="2" max="2" width="15.0576923076923" customWidth="1"/>
+    <col min="1" max="1" width="35.0833333333333" customWidth="1"/>
+    <col min="2" max="2" width="15.0583333333333" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="9.125" customWidth="1"/>
-    <col min="8" max="8" width="9.23076923076923" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="18.1057692307692" customWidth="1"/>
-    <col min="15" max="15" width="16.3461538461538" customWidth="1"/>
-    <col min="16" max="16" width="15.0673076923077" customWidth="1"/>
+    <col min="8" max="8" width="9.23333333333333" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="18.1083333333333" customWidth="1"/>
+    <col min="15" max="15" width="16.35" customWidth="1"/>
+    <col min="16" max="16" width="15.0666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
@@ -3265,7 +3492,7 @@
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="13">
         <v>31331</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -3289,7 +3516,7 @@
       <c r="K4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="12" t="s">
         <v>32</v>
       </c>
       <c r="P4" t="s">
@@ -3306,7 +3533,7 @@
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="13">
         <v>31713</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -3352,15 +3579,15 @@
       <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="35.0865384615385" customWidth="1"/>
-    <col min="2" max="2" width="17.2980769230769" customWidth="1"/>
-    <col min="3" max="3" width="12.4903846153846" customWidth="1"/>
-    <col min="7" max="7" width="11.6826923076923" customWidth="1"/>
-    <col min="8" max="8" width="9.23076923076923" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.2115384615385" customWidth="1"/>
-    <col min="10" max="10" width="30.1153846153846" customWidth="1"/>
+    <col min="1" max="1" width="35.0833333333333" customWidth="1"/>
+    <col min="2" max="2" width="17.3" customWidth="1"/>
+    <col min="3" max="3" width="12.4916666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.6833333333333" customWidth="1"/>
+    <col min="8" max="8" width="9.23333333333333" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.2083333333333" customWidth="1"/>
+    <col min="10" max="10" width="30.1166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
@@ -3460,7 +3687,7 @@
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="13">
         <v>31331</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -3487,7 +3714,7 @@
       <c r="M4" s="1">
         <v>500</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="12" t="s">
         <v>32</v>
       </c>
       <c r="P4" t="s">
@@ -3504,7 +3731,7 @@
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="13">
         <v>31713</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -3555,14 +3782,14 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="39.9038461538462" customWidth="1"/>
-    <col min="2" max="2" width="14.5769230769231" customWidth="1"/>
-    <col min="3" max="3" width="15.7019230769231" customWidth="1"/>
+    <col min="1" max="1" width="39.9" customWidth="1"/>
+    <col min="2" max="2" width="14.575" customWidth="1"/>
+    <col min="3" max="3" width="15.7" customWidth="1"/>
     <col min="15" max="15" width="11.375" customWidth="1"/>
-    <col min="16" max="16" width="13.6153846153846" customWidth="1"/>
-    <col min="18" max="18" width="12.3365384615385" customWidth="1"/>
+    <col min="16" max="16" width="13.6166666666667" customWidth="1"/>
+    <col min="18" max="18" width="12.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
@@ -3668,7 +3895,7 @@
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="13">
         <v>31331</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -3692,7 +3919,7 @@
       <c r="K4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="12" t="s">
         <v>32</v>
       </c>
       <c r="P4">
@@ -3712,7 +3939,7 @@
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="13">
         <v>31713</v>
       </c>
       <c r="D5" s="1" t="s">

--- a/静态调查资料.xlsx
+++ b/静态调查资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="11970" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="25200" windowHeight="11970" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="acop" sheetId="1" r:id="rId1"/>
@@ -359,10 +359,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="27">
@@ -895,28 +895,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1837,10 +1837,10 @@
   <sheetPr/>
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
@@ -1947,7 +1947,7 @@
         <v>103</v>
       </c>
       <c r="M3" s="3">
-        <v>660</v>
+        <v>780</v>
       </c>
       <c r="N3" s="8"/>
       <c r="O3" s="4" t="s">
@@ -1989,7 +1989,7 @@
         <v>103</v>
       </c>
       <c r="M4">
-        <v>3380</v>
+        <v>3500</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="12" t="s">
@@ -3024,7 +3024,7 @@
   <sheetPr/>
   <dimension ref="A1:O111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>

--- a/静态调查资料.xlsx
+++ b/静态调查资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="11970" firstSheet="5" activeTab="10"/>
+    <workbookView windowWidth="25200" windowHeight="11970" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="acop" sheetId="1" r:id="rId1"/>
@@ -359,11 +359,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -904,19 +904,19 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1040,7 +1040,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1065,13 +1065,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1095,16 +1095,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1533,7 +1536,7 @@
       <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="24">
         <v>60632</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -1565,7 +1568,7 @@
       <c r="B4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="26">
         <v>31331</v>
       </c>
       <c r="D4" s="12" t="s">
@@ -1606,7 +1609,7 @@
       <c r="B5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="26">
         <v>31713</v>
       </c>
       <c r="D5" s="12" t="s">
@@ -1837,10 +1840,10 @@
   <sheetPr/>
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
@@ -2433,7 +2436,7 @@
     <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="16"/>
       <c r="C3" s="13"/>
-      <c r="F3" s="24"/>
+      <c r="F3" s="25"/>
       <c r="O3" s="13"/>
     </row>
     <row r="4" spans="1:16">
@@ -2478,7 +2481,7 @@
       <c r="O4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="22" t="s">
+      <c r="P4" s="23" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2522,7 +2525,7 @@
       <c r="O5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="22" t="s">
+      <c r="P5" s="23" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2611,7 +2614,7 @@
     <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="16"/>
       <c r="C3" s="13"/>
-      <c r="F3" s="24"/>
+      <c r="F3" s="25"/>
       <c r="O3" s="13"/>
     </row>
     <row r="4" spans="1:16">
@@ -2700,7 +2703,7 @@
       <c r="O5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="22" t="s">
+      <c r="P5" s="23" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2821,7 +2824,7 @@
       <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="24">
         <v>60632</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -2940,7 +2943,7 @@
       <c r="O5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="22"/>
+      <c r="P5" s="23"/>
     </row>
     <row r="6" ht="15" customHeight="1"/>
   </sheetData>
@@ -3011,7 +3014,7 @@
       <c r="O5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="22"/>
+      <c r="P5" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3024,10 +3027,10 @@
   <sheetPr/>
   <dimension ref="A1:O111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
@@ -3116,7 +3119,7 @@
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="8">
         <v>31140</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -3138,7 +3141,7 @@
         <v>55</v>
       </c>
       <c r="M3" s="1">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>25</v>
@@ -3151,7 +3154,7 @@
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="9">
         <v>31331</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -3248,35 +3251,75 @@
       <c r="J6" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="K6" s="20"/>
+      <c r="K6" s="22"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2">
-        <v>19.75</v>
+        <v>20.5</v>
       </c>
       <c r="O6" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" ht="18.8" customHeight="1"/>
-    <row r="8" ht="18.8" customHeight="1"/>
-    <row r="9" ht="18.8" customHeight="1"/>
-    <row r="10" ht="18.8" customHeight="1"/>
-    <row r="11" ht="18.8" customHeight="1"/>
-    <row r="12" ht="18.8" customHeight="1"/>
-    <row r="13" ht="18.8" customHeight="1"/>
-    <row r="14" ht="18.8" customHeight="1"/>
-    <row r="15" ht="18.8" customHeight="1"/>
-    <row r="16" ht="18.8" customHeight="1"/>
-    <row r="17" ht="18.8" customHeight="1"/>
-    <row r="18" ht="18.8" customHeight="1"/>
-    <row r="19" ht="18.8" customHeight="1"/>
-    <row r="20" ht="18.8" customHeight="1"/>
-    <row r="21" ht="18.8" customHeight="1"/>
-    <row r="22" ht="18.8" customHeight="1"/>
-    <row r="23" ht="18.8" customHeight="1"/>
-    <row r="24" ht="18.8" customHeight="1"/>
-    <row r="25" ht="18.8" customHeight="1"/>
-    <row r="26" ht="18.8" customHeight="1"/>
+    <row r="7" ht="18.8" customHeight="1" spans="3:3">
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" ht="18.8" customHeight="1" spans="3:3">
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" ht="18.8" customHeight="1" spans="3:3">
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" ht="18.8" customHeight="1" spans="3:3">
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" ht="18.8" customHeight="1" spans="3:3">
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" ht="18.8" customHeight="1" spans="3:3">
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" ht="18.8" customHeight="1" spans="3:3">
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" ht="18.8" customHeight="1" spans="3:3">
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" ht="18.8" customHeight="1" spans="3:3">
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" ht="18.8" customHeight="1" spans="3:3">
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" ht="18.8" customHeight="1" spans="3:3">
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" ht="18.8" customHeight="1" spans="3:3">
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" ht="18.8" customHeight="1" spans="3:3">
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" ht="18.8" customHeight="1" spans="3:3">
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" ht="18.8" customHeight="1" spans="3:3">
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" ht="18.8" customHeight="1" spans="3:3">
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" ht="18.8" customHeight="1" spans="3:3">
+      <c r="C23" s="10"/>
+    </row>
+    <row r="24" ht="18.8" customHeight="1" spans="3:3">
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" ht="18.8" customHeight="1" spans="3:3">
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" ht="18.8" customHeight="1" spans="3:3">
+      <c r="C26" s="10"/>
+    </row>
     <row r="27" ht="18.8" customHeight="1"/>
     <row r="28" ht="18.8" customHeight="1"/>
     <row r="29" ht="18.8" customHeight="1"/>

--- a/静态调查资料.xlsx
+++ b/静态调查资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="11970" firstSheet="3" activeTab="5"/>
+    <workbookView windowWidth="25200" windowHeight="11370" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="acop" sheetId="1" r:id="rId1"/>
@@ -359,10 +359,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -895,7 +895,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -907,7 +907,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1065,13 +1065,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1095,13 +1095,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3254,7 +3254,7 @@
       <c r="K6" s="22"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2">
-        <v>20.5</v>
+        <v>21.75</v>
       </c>
       <c r="O6" s="14" t="s">
         <v>72</v>

--- a/静态调查资料.xlsx
+++ b/静态调查资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="11370" firstSheet="3" activeTab="5"/>
+    <workbookView windowWidth="25200" windowHeight="11970" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="acop" sheetId="1" r:id="rId1"/>
@@ -360,10 +360,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -904,19 +904,19 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1065,13 +1065,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1095,13 +1095,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1843,7 +1843,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="$A3:$XFD3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
@@ -1992,7 +1992,7 @@
         <v>103</v>
       </c>
       <c r="M4">
-        <v>3500</v>
+        <v>3740</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="12" t="s">
@@ -3030,7 +3030,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
@@ -3141,7 +3141,7 @@
         <v>55</v>
       </c>
       <c r="M3" s="1">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>25</v>

--- a/静态调查资料.xlsx
+++ b/静态调查资料.xlsx
@@ -360,10 +360,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -904,19 +904,19 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1065,13 +1065,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1095,13 +1095,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3030,7 +3030,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
@@ -3141,7 +3141,7 @@
         <v>55</v>
       </c>
       <c r="M3" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>25</v>
@@ -3254,7 +3254,7 @@
       <c r="K6" s="22"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2">
-        <v>21.75</v>
+        <v>22.75</v>
       </c>
       <c r="O6" s="14" t="s">
         <v>72</v>

--- a/静态调查资料.xlsx
+++ b/静态调查资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="11970" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="25200" windowHeight="11370" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="acop" sheetId="1" r:id="rId1"/>
@@ -359,11 +359,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -895,19 +895,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1065,13 +1065,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1095,13 +1095,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3030,7 +3030,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
@@ -3179,7 +3179,7 @@
         <v>61</v>
       </c>
       <c r="M4" s="1">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O4" s="12" t="s">
         <v>32</v>
@@ -3254,7 +3254,7 @@
       <c r="K6" s="22"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2">
-        <v>22.75</v>
+        <v>23.25</v>
       </c>
       <c r="O6" s="14" t="s">
         <v>72</v>

--- a/静态调查资料.xlsx
+++ b/静态调查资料.xlsx
@@ -3030,7 +3030,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
@@ -3141,7 +3141,7 @@
         <v>55</v>
       </c>
       <c r="M3" s="1">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>25</v>

--- a/静态调查资料.xlsx
+++ b/静态调查资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="11370" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="25200" windowHeight="11970" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="acop" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
     <t>cadillac 2018</t>
   </si>
   <si>
-    <t>Scotland, East of England Wales ，可男可女 25   car aviva  home aa health aviva bank 单 scotish royal 双 hsbc</t>
+    <t>Scotland, East of England Wales ，可男可女 25  audi car aviva  home aa health aviva bank 单 scotish royal 双 hsbc</t>
   </si>
   <si>
     <t>女</t>
@@ -359,8 +359,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
@@ -895,18 +895,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1040,7 +1040,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1109,6 +1109,9 @@
     </xf>
     <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1536,7 +1539,7 @@
       <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="25">
         <v>60632</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -1568,7 +1571,7 @@
       <c r="B4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="27">
         <v>31331</v>
       </c>
       <c r="D4" s="12" t="s">
@@ -1609,7 +1612,7 @@
       <c r="B5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="27">
         <v>31713</v>
       </c>
       <c r="D5" s="12" t="s">
@@ -1840,10 +1843,10 @@
   <sheetPr/>
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
@@ -1992,7 +1995,7 @@
         <v>103</v>
       </c>
       <c r="M4">
-        <v>3740</v>
+        <v>3980</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="12" t="s">
@@ -2436,7 +2439,7 @@
     <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="16"/>
       <c r="C3" s="13"/>
-      <c r="F3" s="25"/>
+      <c r="F3" s="26"/>
       <c r="O3" s="13"/>
     </row>
     <row r="4" spans="1:16">
@@ -2481,7 +2484,7 @@
       <c r="O4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2525,7 +2528,7 @@
       <c r="O5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="23" t="s">
+      <c r="P5" s="24" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2614,7 +2617,7 @@
     <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="16"/>
       <c r="C3" s="13"/>
-      <c r="F3" s="25"/>
+      <c r="F3" s="26"/>
       <c r="O3" s="13"/>
     </row>
     <row r="4" spans="1:16">
@@ -2703,7 +2706,7 @@
       <c r="O5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="23" t="s">
+      <c r="P5" s="24" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2824,7 +2827,7 @@
       <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="25">
         <v>60632</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -2943,7 +2946,7 @@
       <c r="O5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="23"/>
+      <c r="P5" s="24"/>
     </row>
     <row r="6" ht="15" customHeight="1"/>
   </sheetData>
@@ -3014,7 +3017,7 @@
       <c r="O5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="23"/>
+      <c r="P5" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3027,10 +3030,10 @@
   <sheetPr/>
   <dimension ref="A1:O111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
@@ -3179,7 +3182,7 @@
         <v>61</v>
       </c>
       <c r="M4" s="1">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="O4" s="12" t="s">
         <v>32</v>
@@ -3254,7 +3257,10 @@
       <c r="K6" s="22"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2">
-        <v>23.25</v>
+        <v>3</v>
+      </c>
+      <c r="N6" s="23">
+        <v>45066</v>
       </c>
       <c r="O6" s="14" t="s">
         <v>72</v>

--- a/静态调查资料.xlsx
+++ b/静态调查资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="11970" firstSheet="5" activeTab="10"/>
+    <workbookView windowWidth="25200" windowHeight="11370" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="acop" sheetId="1" r:id="rId1"/>
@@ -359,11 +359,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -895,7 +895,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -904,7 +904,7 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -916,7 +916,7 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1065,13 +1065,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1095,13 +1095,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1843,10 +1843,10 @@
   <sheetPr/>
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
@@ -3030,10 +3030,10 @@
   <sheetPr/>
   <dimension ref="A1:O111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
@@ -3182,7 +3182,7 @@
         <v>61</v>
       </c>
       <c r="M4" s="1">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="O4" s="12" t="s">
         <v>32</v>

--- a/静态调查资料.xlsx
+++ b/静态调查资料.xlsx
@@ -359,11 +359,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -907,16 +907,16 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1065,13 +1065,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1095,13 +1095,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3033,7 +3033,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
@@ -3259,9 +3259,7 @@
       <c r="M6" s="2">
         <v>3</v>
       </c>
-      <c r="N6" s="23">
-        <v>45066</v>
-      </c>
+      <c r="N6" s="23"/>
       <c r="O6" s="14" t="s">
         <v>72</v>
       </c>

--- a/静态调查资料.xlsx
+++ b/静态调查资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="11370" firstSheet="4" activeTab="5"/>
+    <workbookView windowWidth="25200" windowHeight="11970" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="acop" sheetId="1" r:id="rId1"/>
@@ -359,10 +359,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="27">
@@ -904,19 +904,19 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3033,7 +3033,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
@@ -3144,7 +3144,7 @@
         <v>55</v>
       </c>
       <c r="M3" s="1">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>25</v>

--- a/静态调查资料.xlsx
+++ b/静态调查资料.xlsx
@@ -1846,7 +1846,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
@@ -1995,7 +1995,7 @@
         <v>103</v>
       </c>
       <c r="M4">
-        <v>3980</v>
+        <v>4515</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="12" t="s">
@@ -3033,7 +3033,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
@@ -3144,7 +3144,7 @@
         <v>55</v>
       </c>
       <c r="M3" s="1">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>25</v>
@@ -3182,7 +3182,7 @@
         <v>61</v>
       </c>
       <c r="M4" s="1">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="O4" s="12" t="s">
         <v>32</v>
@@ -3257,7 +3257,7 @@
       <c r="K6" s="22"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N6" s="23"/>
       <c r="O6" s="14" t="s">

--- a/静态调查资料.xlsx
+++ b/静态调查资料.xlsx
@@ -359,8 +359,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
@@ -895,16 +895,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3033,7 +3033,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
@@ -3144,7 +3144,7 @@
         <v>55</v>
       </c>
       <c r="M3" s="1">
-        <v>15</v>
+        <v>15.75</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>25</v>
@@ -3182,7 +3182,7 @@
         <v>61</v>
       </c>
       <c r="M4" s="1">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="O4" s="12" t="s">
         <v>32</v>

--- a/静态调查资料.xlsx
+++ b/静态调查资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="11970" firstSheet="4" activeTab="5"/>
+    <workbookView windowWidth="25200" windowHeight="11970" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="acop" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="111">
   <si>
     <t>邮箱</t>
   </si>
@@ -270,24 +270,24 @@
     <t>Managing Director</t>
   </si>
   <si>
+    <t>W12 0AB</t>
+  </si>
+  <si>
+    <t>Connor</t>
+  </si>
+  <si>
+    <t>Dennis</t>
+  </si>
+  <si>
+    <t>205 Wulfstan Street</t>
+  </si>
+  <si>
+    <t>General manager</t>
+  </si>
+  <si>
     <t>狗</t>
   </si>
   <si>
-    <t>W12 0AB</t>
-  </si>
-  <si>
-    <t>Connor</t>
-  </si>
-  <si>
-    <t>Dennis</t>
-  </si>
-  <si>
-    <t>205 Wulfstan Street</t>
-  </si>
-  <si>
-    <t>General manager</t>
-  </si>
-  <si>
     <t>孩子firstname</t>
   </si>
   <si>
@@ -321,6 +321,9 @@
     <t>电话</t>
   </si>
   <si>
+    <t>cat name</t>
+  </si>
+  <si>
     <t>AU</t>
   </si>
   <si>
@@ -349,6 +352,9 @@
   </si>
   <si>
     <t>701/188 Day Street</t>
+  </si>
+  <si>
+    <t>Honey</t>
   </si>
   <si>
     <t>50 = 5700</t>
@@ -359,8 +365,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
@@ -895,16 +901,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1814,16 +1820,16 @@
         <v>74</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="O5" s="14" t="s">
         <v>95</v>
@@ -1841,12 +1847,12 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P62"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
@@ -1868,7 +1874,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="17" customHeight="1" spans="1:16">
+    <row r="2" s="2" customFormat="1" ht="17" customHeight="1" spans="1:17">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1916,6 +1922,9 @@
       </c>
       <c r="P2" s="2" t="s">
         <v>97</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
@@ -1932,35 +1941,35 @@
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F3">
         <v>2000</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M3" s="3">
         <v>780</v>
       </c>
       <c r="N3" s="8"/>
       <c r="O3" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -1974,32 +1983,35 @@
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F4">
         <v>2000</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M4">
-        <v>4515</v>
+        <v>115</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="12" t="s">
         <v>32</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="3:14">
@@ -2258,7 +2270,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="17" customHeight="1" spans="1:16">
@@ -2325,31 +2337,31 @@
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F3">
         <v>2000</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M3" s="3">
         <v>250</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3030,10 +3042,10 @@
   <sheetPr/>
   <dimension ref="A1:O111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
@@ -3430,7 +3442,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomLeft" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -3569,9 +3581,7 @@
       <c r="P4" t="s">
         <v>80</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="Q4" s="1"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:16">
       <c r="A5" s="1" t="s">
@@ -3590,22 +3600,22 @@
         <v>74</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3768,7 +3778,7 @@
         <v>80</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:16">
@@ -3788,16 +3798,16 @@
         <v>74</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="M5" s="1">
         <v>500</v>
@@ -3806,7 +3816,7 @@
         <v>41</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3996,16 +4006,16 @@
         <v>74</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>41</v>

--- a/静态调查资料.xlsx
+++ b/静态调查资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="11970" firstSheet="4" activeTab="10"/>
+    <workbookView windowWidth="21000" windowHeight="11625" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="acop" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="116">
   <si>
     <t>邮箱</t>
   </si>
@@ -324,6 +324,15 @@
     <t>cat name</t>
   </si>
   <si>
+    <t>dyor</t>
+  </si>
+  <si>
+    <t>cassava</t>
+  </si>
+  <si>
+    <t>google</t>
+  </si>
+  <si>
     <t>AU</t>
   </si>
   <si>
@@ -345,6 +354,9 @@
     <t>女 2014/1/5</t>
   </si>
   <si>
+    <t>84 926973881</t>
+  </si>
+  <si>
     <t>Joel</t>
   </si>
   <si>
@@ -355,6 +367,9 @@
   </si>
   <si>
     <t>Honey</t>
+  </si>
+  <si>
+    <t>84 528223305</t>
   </si>
   <si>
     <t>50 = 5700</t>
@@ -365,17 +380,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="180" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -387,28 +402,21 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF87878B"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF3E4D5C"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -416,14 +424,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -434,29 +449,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -464,22 +480,44 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -487,7 +525,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -495,7 +533,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -503,15 +541,15 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -519,30 +557,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -550,21 +579,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -590,7 +605,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,13 +719,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,43 +743,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,97 +773,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,7 +785,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,6 +829,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -825,15 +864,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -862,21 +892,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -901,148 +916,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1071,16 +1086,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1095,19 +1113,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1133,55 +1148,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1458,26 +1473,26 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.23809523809524" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="38.6166666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.8916666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.23333333333333" style="1"/>
-    <col min="7" max="7" width="12.9833333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="0.15" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5666666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38.6190476190476" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7047619047619" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.8952380952381" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.3714285714286" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.8952380952381" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.23809523809524" style="1"/>
+    <col min="7" max="7" width="12.9809523809524" style="1" customWidth="1"/>
+    <col min="8" max="8" width="0.152380952380952" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5619047619048" style="1" customWidth="1"/>
     <col min="10" max="10" width="35.7333333333333" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.0833333333333" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.225" style="1" customWidth="1"/>
-    <col min="13" max="14" width="9.23333333333333" style="1"/>
-    <col min="15" max="15" width="12.8083333333333" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.23333333333333" style="1"/>
+    <col min="11" max="11" width="10.0857142857143" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.2285714285714" style="1" customWidth="1"/>
+    <col min="13" max="14" width="9.23809523809524" style="1"/>
+    <col min="15" max="15" width="12.8095238095238" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.23809523809524" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:1">
+    <row r="1" s="2" customFormat="1" ht="13.5" spans="1:1">
       <c r="A1" s="2">
         <v>10</v>
       </c>
@@ -1560,95 +1575,95 @@
       <c r="J3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="13" t="s">
         <v>24</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" s="12" customFormat="1" spans="1:15">
-      <c r="A4" s="12" t="s">
+    <row r="4" s="13" customFormat="1" spans="1:15">
+      <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="27">
         <v>31331</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="13">
         <v>60176</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" s="12" customFormat="1" spans="1:15">
-      <c r="A5" s="12" t="s">
+    <row r="5" s="13" customFormat="1" spans="1:15">
+      <c r="A5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="27">
         <v>31713</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="13">
         <v>75703</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="13" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1673,14 +1688,14 @@
       <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.23809523809524" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="33.325" customWidth="1"/>
+    <col min="1" max="1" width="33.3238095238095" customWidth="1"/>
     <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="14.2583333333333" customWidth="1"/>
-    <col min="10" max="10" width="38.7916666666667" customWidth="1"/>
-    <col min="15" max="15" width="14.575" customWidth="1"/>
-    <col min="16" max="16" width="14.1" customWidth="1"/>
+    <col min="3" max="3" width="14.2571428571429" customWidth="1"/>
+    <col min="10" max="10" width="38.7904761904762" customWidth="1"/>
+    <col min="15" max="15" width="14.5714285714286" customWidth="1"/>
+    <col min="16" max="16" width="14.1047619047619" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
@@ -1760,7 +1775,7 @@
       <c r="J3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="15" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1771,7 +1786,7 @@
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="14">
         <v>37540</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1798,7 +1813,7 @@
       <c r="M4">
         <v>1125</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="15" t="s">
         <v>94</v>
       </c>
       <c r="Q4" s="1"/>
@@ -1810,7 +1825,7 @@
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="14">
         <v>37922</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1831,7 +1846,7 @@
       <c r="J5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="15" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1847,25 +1862,25 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:U62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.23809523809524" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.2" customWidth="1"/>
-    <col min="2" max="2" width="14.425" customWidth="1"/>
-    <col min="3" max="3" width="13.9333333333333" customWidth="1"/>
+    <col min="2" max="2" width="8.71428571428571" customWidth="1"/>
+    <col min="3" max="3" width="15.2857142857143" customWidth="1"/>
     <col min="6" max="6" width="9.13333333333333" customWidth="1"/>
-    <col min="7" max="7" width="11.0583333333333" customWidth="1"/>
-    <col min="9" max="9" width="10.4166666666667" customWidth="1"/>
-    <col min="10" max="10" width="32.05" customWidth="1"/>
-    <col min="11" max="11" width="10.4166666666667" customWidth="1"/>
-    <col min="12" max="12" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="11.0571428571429" customWidth="1"/>
+    <col min="9" max="9" width="10.4190476190476" customWidth="1"/>
+    <col min="10" max="10" width="12.1428571428571" customWidth="1"/>
+    <col min="11" max="11" width="10.4190476190476" customWidth="1"/>
+    <col min="12" max="12" width="14.247619047619" customWidth="1"/>
     <col min="15" max="15" width="13.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1874,7 +1889,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="17" customHeight="1" spans="1:17">
+    <row r="2" s="2" customFormat="1" ht="17" customHeight="1" spans="1:21">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1926,320 +1941,351 @@
       <c r="Q2" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A3" s="1" t="s">
+      <c r="S2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="19" customHeight="1" spans="1:21">
+      <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="9">
         <v>31140</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F3">
         <v>2000</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M3" s="3">
-        <v>780</v>
-      </c>
-      <c r="N3" s="8"/>
+        <v>2550</v>
+      </c>
+      <c r="N3" s="9"/>
       <c r="O3" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:17">
-      <c r="A4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="S3" s="3">
+        <v>1</v>
+      </c>
+      <c r="T3" s="3">
+        <v>1</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" ht="25.5" spans="1:21">
+      <c r="A4" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="10">
         <v>31331</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F4">
         <v>2000</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="L4" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="M4">
-        <v>115</v>
-      </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="N4" s="11"/>
+      <c r="O4" s="13" t="s">
         <v>32</v>
       </c>
       <c r="Q4" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="3:14">
-      <c r="C5" s="10"/>
-      <c r="N5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="N5" s="11"/>
     </row>
     <row r="6" spans="3:14">
-      <c r="C6" s="10"/>
-      <c r="N6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="N6" s="11"/>
     </row>
     <row r="7" spans="3:14">
-      <c r="C7" s="10"/>
-      <c r="N7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="N7" s="11"/>
     </row>
     <row r="8" spans="3:14">
-      <c r="C8" s="10"/>
-      <c r="N8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="N8" s="11"/>
     </row>
     <row r="9" spans="3:14">
-      <c r="C9" s="10"/>
-      <c r="N9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="N9" s="11"/>
     </row>
     <row r="10" spans="3:14">
-      <c r="C10" s="10"/>
-      <c r="N10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="N10" s="11"/>
     </row>
     <row r="11" spans="3:14">
-      <c r="C11" s="10"/>
-      <c r="N11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="N11" s="11"/>
     </row>
     <row r="12" spans="3:14">
-      <c r="C12" s="10"/>
-      <c r="N12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="N12" s="11"/>
     </row>
     <row r="13" spans="3:14">
-      <c r="C13" s="10"/>
-      <c r="N13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="N13" s="11"/>
     </row>
     <row r="14" spans="3:14">
-      <c r="C14" s="10"/>
-      <c r="N14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="N14" s="11"/>
     </row>
     <row r="15" spans="3:14">
-      <c r="C15" s="10"/>
-      <c r="N15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="N15" s="11"/>
     </row>
     <row r="16" spans="3:14">
-      <c r="C16" s="10"/>
-      <c r="N16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="N16" s="11"/>
     </row>
     <row r="17" spans="3:14">
-      <c r="C17" s="10"/>
-      <c r="N17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="N17" s="11"/>
     </row>
     <row r="18" spans="3:14">
-      <c r="C18" s="10"/>
-      <c r="N18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="N18" s="11"/>
     </row>
     <row r="19" spans="3:14">
-      <c r="C19" s="10"/>
-      <c r="N19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="N19" s="11"/>
     </row>
     <row r="20" spans="3:14">
-      <c r="C20" s="10"/>
-      <c r="N20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="N20" s="11"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="10"/>
-      <c r="N21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="N21" s="11"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="10"/>
-      <c r="N22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="N22" s="11"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="10"/>
-      <c r="N23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="N23" s="11"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="10"/>
-      <c r="N24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="N24" s="11"/>
     </row>
     <row r="25" spans="3:14">
-      <c r="C25" s="10"/>
-      <c r="N25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="N25" s="11"/>
     </row>
     <row r="26" spans="3:14">
-      <c r="C26" s="10"/>
-      <c r="N26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="N26" s="11"/>
     </row>
     <row r="27" spans="3:14">
-      <c r="C27" s="10"/>
-      <c r="N27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="N27" s="11"/>
     </row>
     <row r="28" spans="3:14">
-      <c r="C28" s="10"/>
-      <c r="N28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="N28" s="11"/>
     </row>
     <row r="29" spans="3:14">
-      <c r="C29" s="10"/>
-      <c r="N29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="N29" s="11"/>
     </row>
     <row r="30" spans="3:14">
-      <c r="C30" s="10"/>
-      <c r="N30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="N30" s="11"/>
     </row>
     <row r="31" spans="3:14">
-      <c r="C31" s="10"/>
-      <c r="N31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="N31" s="11"/>
     </row>
     <row r="32" spans="3:14">
-      <c r="C32" s="10"/>
-      <c r="N32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="N32" s="11"/>
     </row>
     <row r="33" spans="3:14">
-      <c r="C33" s="10"/>
-      <c r="N33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="N33" s="11"/>
     </row>
     <row r="34" spans="3:14">
-      <c r="C34" s="10"/>
-      <c r="N34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="N34" s="11"/>
     </row>
     <row r="35" spans="3:14">
-      <c r="C35" s="10"/>
-      <c r="N35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="N35" s="11"/>
     </row>
     <row r="36" spans="3:14">
-      <c r="C36" s="10"/>
-      <c r="N36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="N36" s="11"/>
     </row>
     <row r="37" spans="3:14">
-      <c r="C37" s="10"/>
-      <c r="N37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="N37" s="11"/>
     </row>
     <row r="38" spans="3:14">
-      <c r="C38" s="10"/>
-      <c r="N38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="N38" s="11"/>
     </row>
     <row r="39" spans="3:14">
-      <c r="C39" s="10"/>
-      <c r="N39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="N39" s="11"/>
     </row>
     <row r="40" spans="3:14">
-      <c r="C40" s="10"/>
-      <c r="N40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="N40" s="11"/>
     </row>
     <row r="41" spans="3:14">
-      <c r="C41" s="10"/>
-      <c r="N41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="N41" s="11"/>
     </row>
     <row r="42" spans="3:14">
-      <c r="C42" s="10"/>
-      <c r="N42" s="10"/>
+      <c r="C42" s="11"/>
+      <c r="N42" s="11"/>
     </row>
     <row r="43" spans="3:14">
-      <c r="C43" s="10"/>
-      <c r="N43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="N43" s="11"/>
     </row>
     <row r="44" spans="3:14">
-      <c r="C44" s="10"/>
-      <c r="N44" s="10"/>
+      <c r="C44" s="11"/>
+      <c r="N44" s="11"/>
     </row>
     <row r="45" spans="3:14">
-      <c r="C45" s="10"/>
-      <c r="N45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="N45" s="11"/>
     </row>
     <row r="46" spans="3:14">
-      <c r="C46" s="10"/>
-      <c r="N46" s="10"/>
+      <c r="C46" s="11"/>
+      <c r="N46" s="11"/>
     </row>
     <row r="47" spans="3:14">
-      <c r="C47" s="10"/>
-      <c r="N47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="N47" s="11"/>
     </row>
     <row r="48" spans="3:14">
-      <c r="C48" s="10"/>
-      <c r="N48" s="10"/>
+      <c r="C48" s="11"/>
+      <c r="N48" s="11"/>
     </row>
     <row r="49" spans="3:14">
-      <c r="C49" s="10"/>
-      <c r="N49" s="10"/>
+      <c r="C49" s="11"/>
+      <c r="N49" s="11"/>
     </row>
     <row r="50" spans="3:14">
-      <c r="C50" s="10"/>
-      <c r="N50" s="10"/>
+      <c r="C50" s="11"/>
+      <c r="N50" s="11"/>
     </row>
     <row r="51" spans="3:14">
-      <c r="C51" s="10"/>
-      <c r="N51" s="10"/>
+      <c r="C51" s="11"/>
+      <c r="N51" s="11"/>
     </row>
     <row r="52" spans="3:14">
-      <c r="C52" s="10"/>
-      <c r="N52" s="10"/>
+      <c r="C52" s="11"/>
+      <c r="N52" s="11"/>
     </row>
     <row r="53" spans="3:3">
-      <c r="C53" s="10"/>
+      <c r="C53" s="11"/>
     </row>
     <row r="54" spans="3:3">
-      <c r="C54" s="10"/>
+      <c r="C54" s="11"/>
     </row>
     <row r="55" spans="3:3">
-      <c r="C55" s="10"/>
+      <c r="C55" s="11"/>
     </row>
     <row r="56" spans="3:3">
-      <c r="C56" s="10"/>
+      <c r="C56" s="11"/>
     </row>
     <row r="57" spans="3:3">
-      <c r="C57" s="10"/>
+      <c r="C57" s="11"/>
     </row>
     <row r="58" spans="3:3">
-      <c r="C58" s="10"/>
+      <c r="C58" s="11"/>
     </row>
     <row r="59" spans="3:3">
-      <c r="C59" s="10"/>
+      <c r="C59" s="11"/>
     </row>
     <row r="60" spans="3:3">
-      <c r="C60" s="10"/>
+      <c r="C60" s="11"/>
     </row>
     <row r="61" spans="3:3">
-      <c r="C61" s="10"/>
+      <c r="C61" s="11"/>
     </row>
     <row r="62" spans="3:3">
-      <c r="C62" s="10"/>
+      <c r="C62" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" display="tayoshikotarrats8@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="aminlcarnold8@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2254,23 +2300,23 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.23809523809524" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="32.2" customWidth="1"/>
-    <col min="2" max="2" width="14.425" customWidth="1"/>
+    <col min="2" max="2" width="14.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="13.9333333333333" customWidth="1"/>
     <col min="6" max="6" width="9.13333333333333" customWidth="1"/>
-    <col min="7" max="7" width="9.275" customWidth="1"/>
-    <col min="8" max="8" width="9.23333333333333" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.4166666666667" customWidth="1"/>
-    <col min="10" max="10" width="32.05" customWidth="1"/>
-    <col min="11" max="11" width="10.4166666666667" customWidth="1"/>
-    <col min="12" max="12" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="9.27619047619048" customWidth="1"/>
+    <col min="8" max="8" width="9.23809523809524" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.4190476190476" customWidth="1"/>
+    <col min="10" max="10" width="32.0476190476191" customWidth="1"/>
+    <col min="11" max="11" width="10.4190476190476" customWidth="1"/>
+    <col min="12" max="12" width="14.247619047619" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="17" customHeight="1" spans="1:16">
@@ -2337,31 +2383,31 @@
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F3">
         <v>2000</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M3" s="3">
         <v>250</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2384,19 +2430,19 @@
       <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.23809523809524" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="37.65" customWidth="1"/>
+    <col min="1" max="1" width="37.647619047619" customWidth="1"/>
     <col min="2" max="2" width="13.1333333333333" customWidth="1"/>
-    <col min="3" max="3" width="12.9833333333333" customWidth="1"/>
+    <col min="3" max="3" width="12.9809523809524" customWidth="1"/>
     <col min="7" max="7" width="9.93333333333333" customWidth="1"/>
-    <col min="9" max="9" width="10.25" customWidth="1"/>
-    <col min="10" max="10" width="18.9" customWidth="1"/>
-    <col min="11" max="11" width="10.4166666666667" customWidth="1"/>
+    <col min="9" max="9" width="10.247619047619" customWidth="1"/>
+    <col min="10" max="10" width="18.8952380952381" customWidth="1"/>
+    <col min="11" max="11" width="10.4190476190476" customWidth="1"/>
     <col min="12" max="12" width="13.9333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:1">
+    <row r="1" s="2" customFormat="1" ht="13.5" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
@@ -2449,10 +2495,10 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:15">
-      <c r="A3" s="16"/>
-      <c r="C3" s="13"/>
+      <c r="A3" s="8"/>
+      <c r="C3" s="14"/>
       <c r="F3" s="26"/>
-      <c r="O3" s="13"/>
+      <c r="O3" s="14"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
@@ -2461,7 +2507,7 @@
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="14">
         <v>31331</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2507,7 +2553,7 @@
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="14">
         <v>31713</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2565,20 +2611,20 @@
       <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.23809523809524" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="41.0166666666667" customWidth="1"/>
-    <col min="2" max="2" width="15.2083333333333" customWidth="1"/>
-    <col min="3" max="3" width="14.7416666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="8.64166666666667" customWidth="1"/>
-    <col min="9" max="9" width="12.0083333333333" customWidth="1"/>
-    <col min="10" max="10" width="29.975" customWidth="1"/>
-    <col min="12" max="12" width="14.2583333333333" customWidth="1"/>
-    <col min="16" max="16" width="19.7083333333333" customWidth="1"/>
+    <col min="1" max="1" width="41.0190476190476" customWidth="1"/>
+    <col min="2" max="2" width="15.2095238095238" customWidth="1"/>
+    <col min="3" max="3" width="14.7428571428571" customWidth="1"/>
+    <col min="7" max="7" width="11.3714285714286" customWidth="1"/>
+    <col min="8" max="8" width="8.63809523809524" customWidth="1"/>
+    <col min="9" max="9" width="12.0095238095238" customWidth="1"/>
+    <col min="10" max="10" width="29.9714285714286" customWidth="1"/>
+    <col min="12" max="12" width="14.2571428571429" customWidth="1"/>
+    <col min="16" max="16" width="19.7047619047619" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1"/>
+    <row r="1" s="2" customFormat="1" ht="13.5"/>
     <row r="2" s="2" customFormat="1" ht="17" customHeight="1" spans="1:15">
       <c r="A2" s="2" t="s">
         <v>0</v>
@@ -2627,10 +2673,10 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:15">
-      <c r="A3" s="16"/>
-      <c r="C3" s="13"/>
+      <c r="A3" s="8"/>
+      <c r="C3" s="14"/>
       <c r="F3" s="26"/>
-      <c r="O3" s="13"/>
+      <c r="O3" s="14"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
@@ -2639,7 +2685,7 @@
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="14">
         <v>31331</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2685,7 +2731,7 @@
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="14">
         <v>31713</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2743,15 +2789,15 @@
       <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.23809523809524" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="43.425" customWidth="1"/>
-    <col min="2" max="2" width="12.9833333333333" customWidth="1"/>
-    <col min="3" max="3" width="10.8916666666667" customWidth="1"/>
-    <col min="9" max="9" width="10.5666666666667" customWidth="1"/>
-    <col min="10" max="10" width="30.4416666666667" customWidth="1"/>
-    <col min="12" max="12" width="10.8916666666667" customWidth="1"/>
-    <col min="16" max="16" width="14.575" customWidth="1"/>
+    <col min="1" max="1" width="43.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="12.9809523809524" customWidth="1"/>
+    <col min="3" max="3" width="10.8952380952381" customWidth="1"/>
+    <col min="9" max="9" width="10.5619047619048" customWidth="1"/>
+    <col min="10" max="10" width="30.4380952380952" customWidth="1"/>
+    <col min="12" max="12" width="10.8952380952381" customWidth="1"/>
+    <col min="16" max="16" width="14.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2854,10 +2900,10 @@
       <c r="J3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="13" t="s">
         <v>24</v>
       </c>
       <c r="O3" s="4" t="s">
@@ -2871,7 +2917,7 @@
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="14">
         <v>31331</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2922,7 +2968,7 @@
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="14">
         <v>31713</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2960,7 +3006,7 @@
       </c>
       <c r="P5" s="24"/>
     </row>
-    <row r="6" ht="15" customHeight="1"/>
+    <row r="6" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
@@ -2981,11 +3027,11 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="$A5:$XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.23809523809524" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="32.05" customWidth="1"/>
-    <col min="2" max="2" width="16.35" customWidth="1"/>
-    <col min="3" max="3" width="13.6166666666667" customWidth="1"/>
+    <col min="1" max="1" width="32.0476190476191" customWidth="1"/>
+    <col min="2" max="2" width="16.352380952381" customWidth="1"/>
+    <col min="3" max="3" width="13.6190476190476" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19" customHeight="1"/>
@@ -2996,7 +3042,7 @@
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="14">
         <v>31713</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -3048,17 +3094,17 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.23809523809524" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.8083333333333" customWidth="1"/>
-    <col min="2" max="2" width="16.35" customWidth="1"/>
-    <col min="3" max="3" width="13.9416666666667" customWidth="1"/>
-    <col min="7" max="7" width="10.8916666666667" customWidth="1"/>
-    <col min="8" max="8" width="0.475" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.2083333333333" customWidth="1"/>
-    <col min="10" max="10" width="32.675" customWidth="1"/>
-    <col min="11" max="12" width="9.23333333333333" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7416666666667" customWidth="1"/>
+    <col min="1" max="1" width="37.8095238095238" customWidth="1"/>
+    <col min="2" max="2" width="16.352380952381" customWidth="1"/>
+    <col min="3" max="3" width="13.9428571428571" customWidth="1"/>
+    <col min="7" max="7" width="10.8952380952381" customWidth="1"/>
+    <col min="8" max="8" width="0.476190476190476" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.2095238095238" customWidth="1"/>
+    <col min="10" max="10" width="32.6761904761905" customWidth="1"/>
+    <col min="11" max="12" width="9.23809523809524" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3128,13 +3174,13 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="18.8" customHeight="1" spans="1:15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="9">
         <v>31140</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -3169,7 +3215,7 @@
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="10">
         <v>31331</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -3196,11 +3242,11 @@
       <c r="M4" s="1">
         <v>13</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" s="15" customFormat="1" ht="18.8" customHeight="1" spans="1:15">
+    <row r="5" s="16" customFormat="1" ht="18.8" customHeight="1" spans="1:15">
       <c r="A5" s="17" t="s">
         <v>33</v>
       </c>
@@ -3210,25 +3256,25 @@
       <c r="C5" s="18">
         <v>31713</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="16">
         <v>1.75</v>
       </c>
       <c r="O5" s="17" t="s">
@@ -3272,69 +3318,69 @@
         <v>3.5</v>
       </c>
       <c r="N6" s="23"/>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" ht="18.8" customHeight="1" spans="3:3">
-      <c r="C7" s="10"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" ht="18.8" customHeight="1" spans="3:3">
-      <c r="C8" s="10"/>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" ht="18.8" customHeight="1" spans="3:3">
-      <c r="C9" s="10"/>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" ht="18.8" customHeight="1" spans="3:3">
-      <c r="C10" s="10"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" ht="18.8" customHeight="1" spans="3:3">
-      <c r="C11" s="10"/>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" ht="18.8" customHeight="1" spans="3:3">
-      <c r="C12" s="10"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" ht="18.8" customHeight="1" spans="3:3">
-      <c r="C13" s="10"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" ht="18.8" customHeight="1" spans="3:3">
-      <c r="C14" s="10"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" ht="18.8" customHeight="1" spans="3:3">
-      <c r="C15" s="10"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" ht="18.8" customHeight="1" spans="3:3">
-      <c r="C16" s="10"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" ht="18.8" customHeight="1" spans="3:3">
-      <c r="C17" s="10"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" ht="18.8" customHeight="1" spans="3:3">
-      <c r="C18" s="10"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" ht="18.8" customHeight="1" spans="3:3">
-      <c r="C19" s="10"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" ht="18.8" customHeight="1" spans="3:3">
-      <c r="C20" s="10"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" ht="18.8" customHeight="1" spans="3:3">
-      <c r="C21" s="10"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" ht="18.8" customHeight="1" spans="3:3">
-      <c r="C22" s="10"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" ht="18.8" customHeight="1" spans="3:3">
-      <c r="C23" s="10"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" ht="18.8" customHeight="1" spans="3:3">
-      <c r="C24" s="10"/>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" ht="18.8" customHeight="1" spans="3:3">
-      <c r="C25" s="10"/>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" ht="18.8" customHeight="1" spans="3:3">
-      <c r="C26" s="10"/>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" ht="18.8" customHeight="1"/>
     <row r="28" ht="18.8" customHeight="1"/>
@@ -3445,15 +3491,15 @@
       <selection pane="bottomLeft" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.23809523809524" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="35.0833333333333" customWidth="1"/>
-    <col min="2" max="2" width="15.0583333333333" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="9.125" customWidth="1"/>
-    <col min="8" max="8" width="9.23333333333333" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="18.1083333333333" customWidth="1"/>
-    <col min="15" max="15" width="16.35" customWidth="1"/>
+    <col min="1" max="1" width="35.0857142857143" customWidth="1"/>
+    <col min="2" max="2" width="15.0571428571429" customWidth="1"/>
+    <col min="3" max="3" width="12.5047619047619" customWidth="1"/>
+    <col min="7" max="7" width="9.12380952380952" customWidth="1"/>
+    <col min="8" max="8" width="9.23809523809524" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="18.1047619047619" customWidth="1"/>
+    <col min="15" max="15" width="16.352380952381" customWidth="1"/>
     <col min="16" max="16" width="15.0666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3551,7 +3597,7 @@
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="14">
         <v>31331</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -3575,7 +3621,7 @@
       <c r="K4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="13" t="s">
         <v>32</v>
       </c>
       <c r="P4" t="s">
@@ -3590,7 +3636,7 @@
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="14">
         <v>31713</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -3636,15 +3682,15 @@
       <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.23809523809524" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="35.0833333333333" customWidth="1"/>
-    <col min="2" max="2" width="17.3" customWidth="1"/>
-    <col min="3" max="3" width="12.4916666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.6833333333333" customWidth="1"/>
-    <col min="8" max="8" width="9.23333333333333" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.2083333333333" customWidth="1"/>
-    <col min="10" max="10" width="30.1166666666667" customWidth="1"/>
+    <col min="1" max="1" width="35.0857142857143" customWidth="1"/>
+    <col min="2" max="2" width="17.2952380952381" customWidth="1"/>
+    <col min="3" max="3" width="12.4952380952381" customWidth="1"/>
+    <col min="7" max="7" width="11.6857142857143" customWidth="1"/>
+    <col min="8" max="8" width="9.23809523809524" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.2095238095238" customWidth="1"/>
+    <col min="10" max="10" width="30.1142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
@@ -3744,7 +3790,7 @@
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="14">
         <v>31331</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -3771,7 +3817,7 @@
       <c r="M4" s="1">
         <v>500</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="13" t="s">
         <v>32</v>
       </c>
       <c r="P4" t="s">
@@ -3788,7 +3834,7 @@
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="14">
         <v>31713</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -3839,13 +3885,13 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.23809523809524" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="39.9" customWidth="1"/>
-    <col min="2" max="2" width="14.575" customWidth="1"/>
-    <col min="3" max="3" width="15.7" customWidth="1"/>
-    <col min="15" max="15" width="11.375" customWidth="1"/>
-    <col min="16" max="16" width="13.6166666666667" customWidth="1"/>
+    <col min="1" max="1" width="39.9047619047619" customWidth="1"/>
+    <col min="2" max="2" width="14.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="15.6952380952381" customWidth="1"/>
+    <col min="15" max="15" width="11.3714285714286" customWidth="1"/>
+    <col min="16" max="16" width="13.6190476190476" customWidth="1"/>
     <col min="18" max="18" width="12.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3952,7 +3998,7 @@
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="14">
         <v>31331</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -3976,7 +4022,7 @@
       <c r="K4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="13" t="s">
         <v>32</v>
       </c>
       <c r="P4">
@@ -3996,7 +4042,7 @@
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="14">
         <v>31713</v>
       </c>
       <c r="D5" s="1" t="s">

--- a/静态调查资料.xlsx
+++ b/静态调查资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11625" firstSheet="4" activeTab="10"/>
+    <workbookView windowWidth="21000" windowHeight="11625" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="acop" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,16 @@
     <t>cadillac 2018</t>
   </si>
   <si>
-    <t>Scotland, East of England Wales ，可男可女 25  audi car aviva  home aa health aviva bank 单 scotish royal 双 hsbc</t>
+    <t>Scotland, East of England Wales ，可男可女 25  audi car aviva  home aa health aviva breakdown aa bank 单 scotish royal 双 hsbc</t>
+  </si>
+  <si>
+    <t>dyor</t>
+  </si>
+  <si>
+    <t>nansen</t>
+  </si>
+  <si>
+    <t>google</t>
   </si>
   <si>
     <t>女</t>
@@ -195,6 +204,9 @@
     <t>4 Cleveden Drive</t>
   </si>
   <si>
+    <t>84 926973881</t>
+  </si>
+  <si>
     <t>WALE</t>
   </si>
   <si>
@@ -213,6 +225,9 @@
     <t>Cardiff</t>
   </si>
   <si>
+    <t>84 528223305</t>
+  </si>
+  <si>
     <t>CF14 1UJ</t>
   </si>
   <si>
@@ -324,15 +339,6 @@
     <t>cat name</t>
   </si>
   <si>
-    <t>dyor</t>
-  </si>
-  <si>
-    <t>cassava</t>
-  </si>
-  <si>
-    <t>google</t>
-  </si>
-  <si>
     <t>AU</t>
   </si>
   <si>
@@ -354,9 +360,6 @@
     <t>女 2014/1/5</t>
   </si>
   <si>
-    <t>84 926973881</t>
-  </si>
-  <si>
     <t>Joel</t>
   </si>
   <si>
@@ -367,9 +370,6 @@
   </si>
   <si>
     <t>Honey</t>
-  </si>
-  <si>
-    <t>84 528223305</t>
   </si>
   <si>
     <t>50 = 5700</t>
@@ -380,11 +380,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -448,8 +448,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,14 +480,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,13 +511,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,13 +533,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -530,14 +547,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -546,11 +555,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -563,22 +578,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,7 +605,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,13 +623,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,19 +653,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,7 +677,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,55 +695,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,13 +713,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,13 +743,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,13 +785,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,6 +825,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -891,173 +911,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1089,13 +1089,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1116,13 +1116,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1700,7 +1700,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="17" customHeight="1" spans="1:14">
@@ -1761,22 +1761,22 @@
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1790,31 +1790,31 @@
         <v>37540</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M4">
         <v>1125</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Q4" s="1"/>
     </row>
@@ -1832,22 +1832,22 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1864,10 +1864,10 @@
   <sheetPr/>
   <dimension ref="A1:U62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="S2" sqref="S2:U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23809523809524" defaultRowHeight="15"/>
@@ -1886,7 +1886,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="17" customHeight="1" spans="1:21">
@@ -1936,20 +1936,14 @@
         <v>14</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>101</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
     </row>
     <row r="3" s="3" customFormat="1" ht="19" customHeight="1" spans="1:21">
       <c r="A3" s="8" t="s">
@@ -1965,44 +1959,38 @@
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F3">
         <v>2000</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M3" s="3">
         <v>2550</v>
       </c>
       <c r="N3" s="9"/>
       <c r="O3" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="S3" s="3">
-        <v>1</v>
-      </c>
-      <c r="T3" s="3">
-        <v>1</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" ht="25.5" spans="1:21">
+        <v>110</v>
+      </c>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+    </row>
+    <row r="4" ht="25.5" spans="1:17">
       <c r="A4" s="8" t="s">
         <v>26</v>
       </c>
@@ -2016,25 +2004,25 @@
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F4">
         <v>2000</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M4">
         <v>355</v>
@@ -2044,15 +2032,6 @@
         <v>32</v>
       </c>
       <c r="Q4" t="s">
-        <v>113</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2366,7 +2345,7 @@
         <v>14</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
@@ -2383,31 +2362,31 @@
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F3">
         <v>2000</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M3" s="3">
         <v>250</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3086,25 +3065,26 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O111"/>
+  <dimension ref="A1:S111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23809523809524" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.8095238095238" customWidth="1"/>
+    <col min="1" max="1" width="37.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="16.352380952381" customWidth="1"/>
-    <col min="3" max="3" width="13.9428571428571" customWidth="1"/>
+    <col min="3" max="3" width="15.8571428571429" customWidth="1"/>
     <col min="7" max="7" width="10.8952380952381" customWidth="1"/>
     <col min="8" max="8" width="0.476190476190476" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="11.2095238095238" customWidth="1"/>
     <col min="10" max="10" width="32.6761904761905" customWidth="1"/>
     <col min="11" max="12" width="9.23809523809524" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="14.7428571428571" customWidth="1"/>
+    <col min="18" max="18" width="12.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3126,7 +3106,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="17" customHeight="1" spans="1:15">
+    <row r="2" s="2" customFormat="1" ht="17" customHeight="1" spans="1:19">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3172,8 +3152,17 @@
       <c r="O2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="18.8" customHeight="1" spans="1:15">
+      <c r="Q2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="18.8" customHeight="1" spans="1:19">
       <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
@@ -3184,31 +3173,40 @@
         <v>31140</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M3" s="1">
-        <v>15.75</v>
+        <v>16.75</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" ht="18.8" customHeight="1" spans="1:15">
+      <c r="Q3" s="3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3">
+        <v>1</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" ht="18.8" customHeight="1" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -3219,31 +3217,38 @@
         <v>31331</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M4" s="1">
         <v>13</v>
       </c>
       <c r="O4" s="13" t="s">
         <v>32</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4"/>
+      <c r="S4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" s="16" customFormat="1" ht="18.8" customHeight="1" spans="1:15">
@@ -3257,22 +3262,22 @@
         <v>31713</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M5" s="16">
         <v>1.75</v>
@@ -3281,45 +3286,51 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" ht="18.8" customHeight="1" spans="1:15">
+    <row r="6" ht="18.8" customHeight="1" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C6" s="20">
         <v>32357</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K6" s="22"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N6" s="23"/>
       <c r="O6" s="15" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" ht="18.8" customHeight="1" spans="3:3">
@@ -3505,7 +3516,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="17" customHeight="1" spans="1:15">
@@ -3569,25 +3580,25 @@
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3601,31 +3612,31 @@
         <v>31331</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="O4" s="13" t="s">
         <v>32</v>
       </c>
       <c r="P4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q4" s="1"/>
     </row>
@@ -3643,25 +3654,25 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3759,19 +3770,19 @@
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M3" s="1">
         <v>585</v>
@@ -3780,7 +3791,7 @@
         <v>25</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3794,25 +3805,25 @@
         <v>31331</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M4" s="1">
         <v>500</v>
@@ -3821,10 +3832,10 @@
         <v>32</v>
       </c>
       <c r="P4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:16">
@@ -3841,19 +3852,19 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M5" s="1">
         <v>500</v>
@@ -3862,7 +3873,7 @@
         <v>41</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3947,7 +3958,7 @@
         <v>14</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:18">
@@ -3964,19 +3975,19 @@
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>25</v>
@@ -3985,10 +3996,10 @@
         <v>7422850864</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -4002,25 +4013,25 @@
         <v>31331</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="O4" s="13" t="s">
         <v>32</v>
@@ -4029,10 +4040,10 @@
         <v>7501992132</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="R4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:18">
@@ -4049,19 +4060,19 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>41</v>
@@ -4070,10 +4081,10 @@
         <v>7554383148</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/静态调查资料.xlsx
+++ b/静态调查资料.xlsx
@@ -380,11 +380,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -458,14 +458,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,47 +478,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,11 +509,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -563,7 +549,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,6 +572,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,7 +611,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,19 +635,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,25 +743,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,67 +773,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,37 +785,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,26 +825,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -897,6 +877,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -916,7 +916,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -925,10 +928,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -937,127 +937,127 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1089,13 +1089,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1116,13 +1116,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3070,7 +3070,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23809523809524" defaultRowHeight="15"/>
@@ -3238,7 +3238,7 @@
         <v>65</v>
       </c>
       <c r="M4" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O4" s="13" t="s">
         <v>32</v>
@@ -3246,7 +3246,9 @@
       <c r="Q4">
         <v>1</v>
       </c>
-      <c r="R4"/>
+      <c r="R4">
+        <v>1</v>
+      </c>
       <c r="S4" t="s">
         <v>66</v>
       </c>

--- a/静态调查资料.xlsx
+++ b/静态调查资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11625" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12375" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="acop" sheetId="1" r:id="rId1"/>
@@ -380,10 +380,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="27">
@@ -448,11 +448,33 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -465,96 +487,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -571,14 +510,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,7 +605,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,7 +635,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,115 +653,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,37 +683,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,6 +814,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -829,16 +844,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -849,6 +864,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -871,8 +895,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -887,177 +911,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1864,10 +1864,10 @@
   <sheetPr/>
   <dimension ref="A1:U62"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="S2" sqref="S2:U4"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23809523809524" defaultRowHeight="15"/>
@@ -2025,7 +2025,7 @@
         <v>109</v>
       </c>
       <c r="M4">
-        <v>355</v>
+        <v>775</v>
       </c>
       <c r="N4" s="11"/>
       <c r="O4" s="13" t="s">
@@ -3067,10 +3067,10 @@
   <sheetPr/>
   <dimension ref="A1:S111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23809523809524" defaultRowHeight="15"/>
@@ -3322,7 +3322,7 @@
       <c r="K6" s="22"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="N6" s="23"/>
       <c r="O6" s="15" t="s">

--- a/静态调查资料.xlsx
+++ b/静态调查资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" firstSheet="3" activeTab="10"/>
+    <workbookView windowWidth="28800" windowHeight="12210" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="acop" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="117">
   <si>
     <t>邮箱</t>
   </si>
@@ -204,7 +204,7 @@
     <t>4 Cleveden Drive</t>
   </si>
   <si>
-    <t>84 926973881</t>
+    <t>84 926973881 au</t>
   </si>
   <si>
     <t>WALE</t>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t>女 2014/1/5</t>
+  </si>
+  <si>
+    <t>kitty</t>
   </si>
   <si>
     <t>Joel</t>
@@ -378,12 +381,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="27">
@@ -448,17 +451,50 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -470,24 +506,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,44 +531,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,22 +539,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,7 +553,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,25 +608,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,7 +638,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,7 +716,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,7 +734,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,115 +782,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,17 +817,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,35 +880,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -916,148 +919,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1086,7 +1089,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1119,7 +1122,7 @@
     <xf numFmtId="180" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1149,52 +1152,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1980,12 +1983,15 @@
         <v>109</v>
       </c>
       <c r="M3" s="3">
-        <v>2550</v>
+        <v>3210</v>
       </c>
       <c r="N3" s="9"/>
       <c r="O3" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="Q3" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
@@ -2010,13 +2016,13 @@
         <v>2000</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>108</v>
@@ -2025,14 +2031,14 @@
         <v>109</v>
       </c>
       <c r="M4">
-        <v>775</v>
+        <v>955</v>
       </c>
       <c r="N4" s="11"/>
       <c r="O4" s="13" t="s">
         <v>32</v>
       </c>
       <c r="Q4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="3:14">
@@ -2295,7 +2301,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="17" customHeight="1" spans="1:16">
@@ -3070,7 +3076,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23809523809524" defaultRowHeight="15"/>
@@ -3085,6 +3091,7 @@
     <col min="11" max="12" width="9.23809523809524" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="14.7428571428571" customWidth="1"/>
     <col min="18" max="18" width="12.7142857142857" customWidth="1"/>
+    <col min="19" max="19" width="16.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3238,7 +3245,7 @@
         <v>65</v>
       </c>
       <c r="M4" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O4" s="13" t="s">
         <v>32</v>

--- a/静态调查资料.xlsx
+++ b/静态调查资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12210" firstSheet="2" activeTab="10"/>
+    <workbookView windowWidth="28800" windowHeight="12210" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="acop" sheetId="1" r:id="rId1"/>
@@ -1867,10 +1867,10 @@
   <sheetPr/>
   <dimension ref="A1:U62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23809523809524" defaultRowHeight="15"/>
@@ -1983,7 +1983,7 @@
         <v>109</v>
       </c>
       <c r="M3" s="3">
-        <v>3210</v>
+        <v>3450</v>
       </c>
       <c r="N3" s="9"/>
       <c r="O3" s="4" t="s">
@@ -3073,10 +3073,10 @@
   <sheetPr/>
   <dimension ref="A1:S111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="$A3:$XFD3"/>
+      <selection pane="bottomLeft" activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23809523809524" defaultRowHeight="15"/>
@@ -3198,7 +3198,7 @@
         <v>58</v>
       </c>
       <c r="M3" s="1">
-        <v>16.75</v>
+        <v>18.75</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>25</v>
@@ -3245,7 +3245,7 @@
         <v>65</v>
       </c>
       <c r="M4" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O4" s="13" t="s">
         <v>32</v>

--- a/静态调查资料.xlsx
+++ b/静态调查资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12210" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="30240" windowHeight="13320" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="acop" sheetId="1" r:id="rId1"/>
@@ -381,19 +381,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -405,21 +405,21 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF87878B"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF3E4D5C"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -427,21 +427,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -454,14 +454,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -469,7 +469,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -477,7 +477,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -485,7 +485,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -493,7 +493,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -501,14 +501,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -516,7 +516,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -524,7 +524,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -532,14 +532,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -547,42 +547,42 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -919,19 +919,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1092,13 +1092,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1119,13 +1119,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1151,55 +1151,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1476,26 +1476,26 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23809523809524" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.24038461538461" defaultRowHeight="16.8" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="38.6190476190476" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7047619047619" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.8952380952381" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.3714285714286" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.8952380952381" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.23809523809524" style="1"/>
-    <col min="7" max="7" width="12.9809523809524" style="1" customWidth="1"/>
-    <col min="8" max="8" width="0.152380952380952" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5619047619048" style="1" customWidth="1"/>
-    <col min="10" max="10" width="35.7333333333333" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.0857142857143" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.2285714285714" style="1" customWidth="1"/>
-    <col min="13" max="14" width="9.23809523809524" style="1"/>
-    <col min="15" max="15" width="12.8095238095238" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.23809523809524" style="1"/>
+    <col min="1" max="1" width="38.6153846153846" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7019230769231" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.8942307692308" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.8942307692308" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.24038461538461" style="1"/>
+    <col min="7" max="7" width="12.9807692307692" style="1" customWidth="1"/>
+    <col min="8" max="8" width="0.153846153846154" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5576923076923" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35.7307692307692" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.0865384615385" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.2307692307692" style="1" customWidth="1"/>
+    <col min="13" max="14" width="9.24038461538461" style="1"/>
+    <col min="15" max="15" width="12.8076923076923" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.24038461538461" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="13.5" spans="1:1">
+    <row r="1" s="2" customFormat="1" spans="1:1">
       <c r="A1" s="2">
         <v>10</v>
       </c>
@@ -1691,14 +1691,14 @@
       <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23809523809524" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.24038461538461" defaultRowHeight="16.8" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="33.3238095238095" customWidth="1"/>
-    <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="14.2571428571429" customWidth="1"/>
-    <col min="10" max="10" width="38.7904761904762" customWidth="1"/>
-    <col min="15" max="15" width="14.5714285714286" customWidth="1"/>
-    <col min="16" max="16" width="14.1047619047619" customWidth="1"/>
+    <col min="1" max="1" width="33.3269230769231" customWidth="1"/>
+    <col min="2" max="2" width="12.3365384615385" customWidth="1"/>
+    <col min="3" max="3" width="14.2596153846154" customWidth="1"/>
+    <col min="10" max="10" width="38.7884615384615" customWidth="1"/>
+    <col min="15" max="15" width="14.5673076923077" customWidth="1"/>
+    <col min="16" max="16" width="14.1057692307692" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
@@ -1867,24 +1867,24 @@
   <sheetPr/>
   <dimension ref="A1:U62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="$A4:$XFD4"/>
+      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23809523809524" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.24038461538461" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="32.2" customWidth="1"/>
-    <col min="2" max="2" width="8.71428571428571" customWidth="1"/>
-    <col min="3" max="3" width="15.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="9.13333333333333" customWidth="1"/>
-    <col min="7" max="7" width="11.0571428571429" customWidth="1"/>
-    <col min="9" max="9" width="10.4190476190476" customWidth="1"/>
-    <col min="10" max="10" width="12.1428571428571" customWidth="1"/>
-    <col min="11" max="11" width="10.4190476190476" customWidth="1"/>
-    <col min="12" max="12" width="14.247619047619" customWidth="1"/>
-    <col min="15" max="15" width="13.1333333333333" customWidth="1"/>
+    <col min="1" max="1" width="32.2019230769231" customWidth="1"/>
+    <col min="2" max="2" width="8.71153846153846" customWidth="1"/>
+    <col min="3" max="3" width="15.2884615384615" customWidth="1"/>
+    <col min="6" max="6" width="9.13461538461539" customWidth="1"/>
+    <col min="7" max="7" width="11.0576923076923" customWidth="1"/>
+    <col min="9" max="9" width="10.4230769230769" customWidth="1"/>
+    <col min="10" max="10" width="12.1442307692308" customWidth="1"/>
+    <col min="11" max="11" width="10.4230769230769" customWidth="1"/>
+    <col min="12" max="12" width="14.25" customWidth="1"/>
+    <col min="15" max="15" width="13.1346153846154" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:1">
@@ -1983,7 +1983,7 @@
         <v>109</v>
       </c>
       <c r="M3" s="3">
-        <v>3450</v>
+        <v>3930</v>
       </c>
       <c r="N3" s="9"/>
       <c r="O3" s="4" t="s">
@@ -1996,7 +1996,7 @@
       <c r="T3"/>
       <c r="U3"/>
     </row>
-    <row r="4" ht="25.5" spans="1:17">
+    <row r="4" ht="17.6" spans="1:17">
       <c r="A4" s="8" t="s">
         <v>26</v>
       </c>
@@ -2285,18 +2285,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23809523809524" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.24038461538461" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="32.2" customWidth="1"/>
-    <col min="2" max="2" width="14.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="13.9333333333333" customWidth="1"/>
-    <col min="6" max="6" width="9.13333333333333" customWidth="1"/>
-    <col min="7" max="7" width="9.27619047619048" customWidth="1"/>
-    <col min="8" max="8" width="9.23809523809524" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.4190476190476" customWidth="1"/>
-    <col min="10" max="10" width="32.0476190476191" customWidth="1"/>
-    <col min="11" max="11" width="10.4190476190476" customWidth="1"/>
-    <col min="12" max="12" width="14.247619047619" customWidth="1"/>
+    <col min="1" max="1" width="32.2019230769231" customWidth="1"/>
+    <col min="2" max="2" width="14.4326923076923" customWidth="1"/>
+    <col min="3" max="3" width="13.9326923076923" customWidth="1"/>
+    <col min="6" max="6" width="9.13461538461539" customWidth="1"/>
+    <col min="7" max="7" width="9.27884615384615" customWidth="1"/>
+    <col min="8" max="8" width="9.24038461538461" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.4230769230769" customWidth="1"/>
+    <col min="10" max="10" width="32.0480769230769" customWidth="1"/>
+    <col min="11" max="11" width="10.4230769230769" customWidth="1"/>
+    <col min="12" max="12" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:1">
@@ -2415,19 +2415,19 @@
       <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23809523809524" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.24038461538461" defaultRowHeight="16.8" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="37.647619047619" customWidth="1"/>
-    <col min="2" max="2" width="13.1333333333333" customWidth="1"/>
-    <col min="3" max="3" width="12.9809523809524" customWidth="1"/>
-    <col min="7" max="7" width="9.93333333333333" customWidth="1"/>
-    <col min="9" max="9" width="10.247619047619" customWidth="1"/>
-    <col min="10" max="10" width="18.8952380952381" customWidth="1"/>
-    <col min="11" max="11" width="10.4190476190476" customWidth="1"/>
-    <col min="12" max="12" width="13.9333333333333" customWidth="1"/>
+    <col min="1" max="1" width="37.6442307692308" customWidth="1"/>
+    <col min="2" max="2" width="13.1346153846154" customWidth="1"/>
+    <col min="3" max="3" width="12.9807692307692" customWidth="1"/>
+    <col min="7" max="7" width="9.93269230769231" customWidth="1"/>
+    <col min="9" max="9" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="18.8942307692308" customWidth="1"/>
+    <col min="11" max="11" width="10.4230769230769" customWidth="1"/>
+    <col min="12" max="12" width="13.9326923076923" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="13.5" spans="1:1">
+    <row r="1" s="2" customFormat="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
@@ -2596,20 +2596,20 @@
       <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23809523809524" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.24038461538461" defaultRowHeight="16.8" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="41.0190476190476" customWidth="1"/>
-    <col min="2" max="2" width="15.2095238095238" customWidth="1"/>
-    <col min="3" max="3" width="14.7428571428571" customWidth="1"/>
-    <col min="7" max="7" width="11.3714285714286" customWidth="1"/>
-    <col min="8" max="8" width="8.63809523809524" customWidth="1"/>
-    <col min="9" max="9" width="12.0095238095238" customWidth="1"/>
-    <col min="10" max="10" width="29.9714285714286" customWidth="1"/>
-    <col min="12" max="12" width="14.2571428571429" customWidth="1"/>
-    <col min="16" max="16" width="19.7047619047619" customWidth="1"/>
+    <col min="1" max="1" width="41.0192307692308" customWidth="1"/>
+    <col min="2" max="2" width="15.2115384615385" customWidth="1"/>
+    <col min="3" max="3" width="14.7403846153846" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="8.63461538461539" customWidth="1"/>
+    <col min="9" max="9" width="12.0096153846154" customWidth="1"/>
+    <col min="10" max="10" width="29.9711538461538" customWidth="1"/>
+    <col min="12" max="12" width="14.2596153846154" customWidth="1"/>
+    <col min="16" max="16" width="19.7019230769231" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="13.5"/>
+    <row r="1" s="2" customFormat="1"/>
     <row r="2" s="2" customFormat="1" ht="17" customHeight="1" spans="1:15">
       <c r="A2" s="2" t="s">
         <v>0</v>
@@ -2774,15 +2774,15 @@
       <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23809523809524" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.24038461538461" defaultRowHeight="16.8" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="43.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="12.9809523809524" customWidth="1"/>
-    <col min="3" max="3" width="10.8952380952381" customWidth="1"/>
-    <col min="9" max="9" width="10.5619047619048" customWidth="1"/>
-    <col min="10" max="10" width="30.4380952380952" customWidth="1"/>
-    <col min="12" max="12" width="10.8952380952381" customWidth="1"/>
-    <col min="16" max="16" width="14.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="43.4326923076923" customWidth="1"/>
+    <col min="2" max="2" width="12.9807692307692" customWidth="1"/>
+    <col min="3" max="3" width="10.8942307692308" customWidth="1"/>
+    <col min="9" max="9" width="10.5576923076923" customWidth="1"/>
+    <col min="10" max="10" width="30.4423076923077" customWidth="1"/>
+    <col min="12" max="12" width="10.8942307692308" customWidth="1"/>
+    <col min="16" max="16" width="14.5673076923077" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="P5" s="24"/>
     </row>
-    <row r="6" customHeight="1"/>
+    <row r="6" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
@@ -3012,11 +3012,11 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="$A5:$XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23809523809524" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.24038461538461" defaultRowHeight="16.8" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="32.0476190476191" customWidth="1"/>
-    <col min="2" max="2" width="16.352380952381" customWidth="1"/>
-    <col min="3" max="3" width="13.6190476190476" customWidth="1"/>
+    <col min="1" max="1" width="32.0480769230769" customWidth="1"/>
+    <col min="2" max="2" width="16.3557692307692" customWidth="1"/>
+    <col min="3" max="3" width="13.6153846153846" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19" customHeight="1"/>
@@ -3073,25 +3073,25 @@
   <sheetPr/>
   <dimension ref="A1:S111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23809523809524" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.24038461538461" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="37.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="16.352380952381" customWidth="1"/>
-    <col min="3" max="3" width="15.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="10.8952380952381" customWidth="1"/>
-    <col min="8" max="8" width="0.476190476190476" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.2095238095238" customWidth="1"/>
-    <col min="10" max="10" width="32.6761904761905" customWidth="1"/>
-    <col min="11" max="12" width="9.23809523809524" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7428571428571" customWidth="1"/>
-    <col min="18" max="18" width="12.7142857142857" customWidth="1"/>
-    <col min="19" max="19" width="16.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="37.2884615384615" customWidth="1"/>
+    <col min="2" max="2" width="16.3557692307692" customWidth="1"/>
+    <col min="3" max="3" width="15.8557692307692" customWidth="1"/>
+    <col min="7" max="7" width="10.8942307692308" customWidth="1"/>
+    <col min="8" max="8" width="0.480769230769231" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.2115384615385" customWidth="1"/>
+    <col min="10" max="10" width="32.6730769230769" customWidth="1"/>
+    <col min="11" max="12" width="9.24038461538461" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7403846153846" customWidth="1"/>
+    <col min="18" max="18" width="12.7115384615385" customWidth="1"/>
+    <col min="19" max="19" width="16.5673076923077" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3511,16 +3511,16 @@
       <selection pane="bottomLeft" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23809523809524" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.24038461538461" defaultRowHeight="16.8" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="35.0857142857143" customWidth="1"/>
-    <col min="2" max="2" width="15.0571428571429" customWidth="1"/>
-    <col min="3" max="3" width="12.5047619047619" customWidth="1"/>
-    <col min="7" max="7" width="9.12380952380952" customWidth="1"/>
-    <col min="8" max="8" width="9.23809523809524" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="18.1047619047619" customWidth="1"/>
-    <col min="15" max="15" width="16.352380952381" customWidth="1"/>
-    <col min="16" max="16" width="15.0666666666667" customWidth="1"/>
+    <col min="1" max="1" width="35.0865384615385" customWidth="1"/>
+    <col min="2" max="2" width="15.0576923076923" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
+    <col min="8" max="8" width="9.24038461538461" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="18.1057692307692" customWidth="1"/>
+    <col min="15" max="15" width="16.3557692307692" customWidth="1"/>
+    <col min="16" max="16" width="15.0673076923077" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
@@ -3702,15 +3702,15 @@
       <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23809523809524" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.24038461538461" defaultRowHeight="16.8" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="35.0857142857143" customWidth="1"/>
-    <col min="2" max="2" width="17.2952380952381" customWidth="1"/>
-    <col min="3" max="3" width="12.4952380952381" customWidth="1"/>
-    <col min="7" max="7" width="11.6857142857143" customWidth="1"/>
-    <col min="8" max="8" width="9.23809523809524" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.2095238095238" customWidth="1"/>
-    <col min="10" max="10" width="30.1142857142857" customWidth="1"/>
+    <col min="1" max="1" width="35.0865384615385" customWidth="1"/>
+    <col min="2" max="2" width="17.2980769230769" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="11.6826923076923" customWidth="1"/>
+    <col min="8" max="8" width="9.24038461538461" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.2115384615385" customWidth="1"/>
+    <col min="10" max="10" width="30.1153846153846" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
@@ -3905,14 +3905,14 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23809523809524" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.24038461538461" defaultRowHeight="16.8" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="39.9047619047619" customWidth="1"/>
-    <col min="2" max="2" width="14.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.6952380952381" customWidth="1"/>
-    <col min="15" max="15" width="11.3714285714286" customWidth="1"/>
-    <col min="16" max="16" width="13.6190476190476" customWidth="1"/>
-    <col min="18" max="18" width="12.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="39.9038461538462" customWidth="1"/>
+    <col min="2" max="2" width="14.5673076923077" customWidth="1"/>
+    <col min="3" max="3" width="15.6923076923077" customWidth="1"/>
+    <col min="15" max="15" width="11.375" customWidth="1"/>
+    <col min="16" max="16" width="13.6153846153846" customWidth="1"/>
+    <col min="18" max="18" width="12.3365384615385" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">

--- a/静态调查资料.xlsx
+++ b/静态调查资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13320" firstSheet="5" activeTab="10"/>
+    <workbookView windowWidth="30240" windowHeight="13320" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="acop" sheetId="1" r:id="rId1"/>
@@ -1867,7 +1867,7 @@
   <sheetPr/>
   <dimension ref="A1:U62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
@@ -3073,10 +3073,10 @@
   <sheetPr/>
   <dimension ref="A1:S111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="V9" sqref="V9"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.24038461538461" defaultRowHeight="16.8"/>
@@ -3245,7 +3245,7 @@
         <v>65</v>
       </c>
       <c r="M4" s="1">
-        <v>18</v>
+        <v>18.25</v>
       </c>
       <c r="O4" s="13" t="s">
         <v>32</v>

--- a/静态调查资料.xlsx
+++ b/静态调查资料.xlsx
@@ -3245,7 +3245,7 @@
         <v>65</v>
       </c>
       <c r="M4" s="1">
-        <v>18.25</v>
+        <v>18.75</v>
       </c>
       <c r="O4" s="13" t="s">
         <v>32</v>

--- a/静态调查资料.xlsx
+++ b/静态调查资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13320" firstSheet="5" activeTab="5"/>
+    <workbookView windowWidth="30240" windowHeight="13300" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="acop" sheetId="1" r:id="rId1"/>
@@ -1983,7 +1983,7 @@
         <v>109</v>
       </c>
       <c r="M3" s="3">
-        <v>3930</v>
+        <v>4050</v>
       </c>
       <c r="N3" s="9"/>
       <c r="O3" s="4" t="s">
@@ -3245,7 +3245,7 @@
         <v>65</v>
       </c>
       <c r="M4" s="1">
-        <v>18.75</v>
+        <v>19.75</v>
       </c>
       <c r="O4" s="13" t="s">
         <v>32</v>

--- a/静态调查资料.xlsx
+++ b/静态调查资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13300" firstSheet="5" activeTab="5"/>
+    <workbookView windowWidth="30240" windowHeight="13260" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="acop" sheetId="1" r:id="rId1"/>
@@ -1983,7 +1983,7 @@
         <v>109</v>
       </c>
       <c r="M3" s="3">
-        <v>4050</v>
+        <v>4290</v>
       </c>
       <c r="N3" s="9"/>
       <c r="O3" s="4" t="s">
@@ -3076,7 +3076,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.24038461538461" defaultRowHeight="16.8"/>
@@ -3198,7 +3198,7 @@
         <v>58</v>
       </c>
       <c r="M3" s="1">
-        <v>18.75</v>
+        <v>19.5</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>25</v>
@@ -3245,7 +3245,7 @@
         <v>65</v>
       </c>
       <c r="M4" s="1">
-        <v>19.75</v>
+        <v>20.25</v>
       </c>
       <c r="O4" s="13" t="s">
         <v>32</v>
@@ -3329,7 +3329,7 @@
       <c r="K6" s="22"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="N6" s="23"/>
       <c r="O6" s="15" t="s">
